--- a/2.1.3/213.xlsx
+++ b/2.1.3/213.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Study\Labs\2.1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239986D9-77F2-41E4-8B53-1DBB68606776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC699BC-0E5B-4DE2-99F8-D4078985200A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{56A25CD9-D8FD-4E03-97AF-028B36EED74E}"/>
   </bookViews>
@@ -450,28 +450,28 @@
         <v>209</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <f>C2-202</f>
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <f>G2-205</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <f>J2-208</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
         <f>M2-209</f>
@@ -507,28 +507,28 @@
         <v>469</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P6" si="0">C3-202</f>
         <v>248</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R6" si="1">G3-205</f>
         <v>256</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T6" si="2">J3-208</f>
         <v>256</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V6" si="3">M3-209</f>
@@ -564,28 +564,28 @@
         <v>689</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
         <v>458</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R4">
         <f t="shared" si="1"/>
         <v>472</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T4">
         <f t="shared" si="2"/>
         <v>474</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V4">
         <f t="shared" si="3"/>
@@ -618,28 +618,28 @@
         <v>913</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
         <v>672</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R5">
         <f t="shared" si="1"/>
         <v>691</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T5">
         <f t="shared" si="2"/>
         <v>695</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V5">
         <f t="shared" si="3"/>
@@ -672,28 +672,28 @@
         <v>1139</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
         <v>886</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R6">
         <f t="shared" si="1"/>
         <v>913</v>
       </c>
       <c r="S6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T6">
         <f t="shared" si="2"/>
         <v>919</v>
       </c>
       <c r="U6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6">
         <f t="shared" si="3"/>
